--- a/documents/project_tracker.xlsx
+++ b/documents/project_tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastern-my.sharepoint.com/personal/kulch_t_northeastern_edu/Documents/Desktop/5110/Final_Project/Golf-Course-Manager/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastern-my.sharepoint.com/personal/kulch_t_northeastern_edu/Documents/Desktop/5110/Final_Project/Golf-Course-Manager/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="8_{05AAF408-A97B-2F45-A453-CB780F88218B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B3BCD13-A4AB-F943-8F79-08AB2132B78F}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="8_{05AAF408-A97B-2F45-A453-CB780F88218B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{478E5E10-1BCA-42B5-81B2-5BB3886366DD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Schedule " sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="84">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -246,9 +246,6 @@
     <t>ML model 1 : Score prediction</t>
   </si>
   <si>
-    <t>create report and presentation slides</t>
-  </si>
-  <si>
     <t>all steps outlined in document if we need a reference</t>
   </si>
   <si>
@@ -283,6 +280,12 @@
   </si>
   <si>
     <t>do test files if we are limited on time</t>
+  </si>
+  <si>
+    <t>presentation slides and documentation</t>
+  </si>
+  <si>
+    <t>create report and peer reviews</t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +388,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -398,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -420,6 +429,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,24 +736,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25566C2C-9B0D-1745-B448-72AEB94B32C8}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="142.1640625" customWidth="1"/>
+    <col min="7" max="7" width="142.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -754,7 +764,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -767,7 +777,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -775,10 +785,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -789,19 +799,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>45812</v>
       </c>
       <c r="B6" s="13">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="C6" s="14">
-        <f>COUNTIF(F8:F23, "Complete") / COUNTA(F8:F23)</f>
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <f>COUNTIF(F8:F23, "Complete") / COUNTA(F8:F24)</f>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -824,7 +834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
@@ -844,7 +854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>61</v>
       </c>
@@ -867,7 +877,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
@@ -887,7 +897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -907,10 +917,10 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>64</v>
       </c>
@@ -930,7 +940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>65</v>
       </c>
@@ -950,7 +960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>67</v>
       </c>
@@ -970,9 +980,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>56</v>
@@ -990,10 +1000,10 @@
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
@@ -1013,10 +1023,10 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>68</v>
       </c>
@@ -1036,10 +1046,10 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>69</v>
       </c>
@@ -1059,12 +1069,12 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>56</v>
@@ -1082,12 +1092,12 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>56</v>
@@ -1105,9 +1115,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>56</v>
@@ -1125,12 +1135,12 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>56</v>
@@ -1148,9 +1158,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>56</v>
@@ -1159,23 +1169,43 @@
         <v>45871</v>
       </c>
       <c r="D23" s="12">
-        <v>45873</v>
+        <v>45871</v>
       </c>
       <c r="E23" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="12">
+        <v>45872</v>
+      </c>
+      <c r="D24" s="12">
+        <v>45874</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1194,18 +1224,18 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -1216,7 +1246,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1229,17 +1259,17 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>45813</v>
       </c>
@@ -1261,7 +1291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +1314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1304,7 +1334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -1324,7 +1354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1344,7 +1374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1364,7 +1394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1384,7 +1414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1404,7 +1434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1424,7 +1454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
@@ -1444,7 +1474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -1464,7 +1494,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>42</v>
       </c>
@@ -1484,7 +1514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
@@ -1504,7 +1534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
@@ -1524,7 +1554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
@@ -1544,7 +1574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>52</v>
       </c>
@@ -1564,7 +1594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>

--- a/documents/project_tracker.xlsx
+++ b/documents/project_tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastern-my.sharepoint.com/personal/kulch_t_northeastern_edu/Documents/Desktop/5110/Final_Project/Golf-Course-Manager/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="8_{05AAF408-A97B-2F45-A453-CB780F88218B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{478E5E10-1BCA-42B5-81B2-5BB3886366DD}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="8_{05AAF408-A97B-2F45-A453-CB780F88218B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF87845-622A-F94A-8B19-E0D87E747345}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Schedule " sheetId="2" r:id="rId1"/>
@@ -327,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,12 +388,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -407,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -429,7 +423,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +438,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -739,21 +728,21 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="142.140625" customWidth="1"/>
+    <col min="7" max="7" width="142.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -764,7 +753,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -777,7 +766,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -785,10 +774,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -799,7 +788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>45812</v>
       </c>
@@ -808,10 +797,10 @@
       </c>
       <c r="C6" s="14">
         <f>COUNTIF(F8:F23, "Complete") / COUNTA(F8:F24)</f>
-        <v>0.88235294117647056</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94117647058823528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -834,7 +823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
@@ -854,7 +843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>61</v>
       </c>
@@ -877,7 +866,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
@@ -897,7 +886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
@@ -920,7 +909,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>64</v>
       </c>
@@ -940,7 +929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>65</v>
       </c>
@@ -960,7 +949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>67</v>
       </c>
@@ -980,7 +969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>74</v>
       </c>
@@ -1003,7 +992,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
@@ -1026,7 +1015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>68</v>
       </c>
@@ -1049,7 +1038,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>69</v>
       </c>
@@ -1072,7 +1061,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>79</v>
       </c>
@@ -1095,7 +1084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>71</v>
       </c>
@@ -1115,7 +1104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>80</v>
       </c>
@@ -1138,7 +1127,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>72</v>
       </c>
@@ -1158,7 +1147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>82</v>
       </c>
@@ -1174,11 +1163,11 @@
       <c r="E23" s="7">
         <v>1</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>83</v>
       </c>
@@ -1194,11 +1183,11 @@
       <c r="E24" s="7">
         <v>3</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1224,18 +1213,18 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -1246,7 +1235,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1259,17 +1248,17 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>45813</v>
       </c>
@@ -1291,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1334,7 +1323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -1354,7 +1343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1374,7 +1363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1394,7 +1383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1414,7 +1403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1434,7 +1423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -1454,7 +1443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
@@ -1474,7 +1463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -1494,7 +1483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>42</v>
       </c>
@@ -1514,7 +1503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
@@ -1534,7 +1523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>48</v>
       </c>
@@ -1554,7 +1543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>50</v>
       </c>
@@ -1574,7 +1563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>52</v>
       </c>
@@ -1594,7 +1583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
